--- a/public/data/lime/lime_table_somalia.xlsx
+++ b/public/data/lime/lime_table_somalia.xlsx
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4.14</v>
+        <v>0.75</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
